--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2355062.946088542</v>
+        <v>-2357757.74336439</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>256.0280929834624</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>196.5501500659891</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.74677700470471</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>69.92156931901307</v>
       </c>
       <c r="V4" t="n">
-        <v>63.69001051091573</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>248.3737813800356</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.5711540783794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.816346182513</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.99154730928184</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>153.598898231731</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>173.0840193652023</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>168.3346747233659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>49.14758999785307</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587408</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740351</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0407206186885</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>27.0291980517616</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>68.07731664460587</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
         <v>124.3308255261727</v>
@@ -2485,16 +2485,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>1243.770722400264</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>1229.885089062178</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>1229.885089062178</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1229.885089062178</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1969.520845473351</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>1714.836357267464</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>1425.419187230504</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>1425.419187230504</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>1425.419187230504</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1110.567897645743</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1110.567897645743</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>724.7796450474991</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>717.8341442982957</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>302.1293940225845</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1479.530414586155</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786115</v>
+        <v>833.9149192343713</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>664.9787363064644</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.291963913589</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.291963913589</v>
+        <v>1282.697049275919</v>
       </c>
       <c r="W7" t="n">
-        <v>743.8747938766288</v>
+        <v>1282.697049275919</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8852429786115</v>
+        <v>1054.707498377901</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8852429786115</v>
+        <v>833.9149192343713</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2089.358425227296</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3040.482810343132</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X8" t="n">
-        <v>2866.09759726723</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2475.958265291418</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266613</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1054.704156637392</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>765.2869866004312</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>765.2869866004312</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.4944074569011</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397185</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433613</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.965271928681</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778193</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778193</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654835</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292454</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086567</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049606</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151589</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.667611008059</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.15241352498</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,19 +6406,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6613,19 +6613,19 @@
         <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954156</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.757116639391</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495414</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380719</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878357</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-4.622556459041187e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>109.2447987875452</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5389251356809</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>152.6908186514239</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.5000440939231</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129123</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833701</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0969227051395</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948076</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.9489693570387</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26314,43 +26314,43 @@
         <v>31766.15265272276</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450032</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321418</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819078</v>
+        <v>48293.97000819076</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363171</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29520.00810516217</v>
+        <v>29520.00810516216</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483776</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483778</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="O4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205443.411468203</v>
+        <v>-1205907.708260228</v>
       </c>
       <c r="C6" t="n">
-        <v>-187407.8209236137</v>
+        <v>-187407.8209236136</v>
       </c>
       <c r="D6" t="n">
-        <v>-347423.2836716127</v>
+        <v>-347423.2836716126</v>
       </c>
       <c r="E6" t="n">
-        <v>-394904.9180385064</v>
+        <v>-394939.655963942</v>
       </c>
       <c r="F6" t="n">
-        <v>-69492.45623115107</v>
+        <v>-69527.19415658676</v>
       </c>
       <c r="G6" t="n">
-        <v>-69492.4562311511</v>
+        <v>-69527.19415658676</v>
       </c>
       <c r="H6" t="n">
-        <v>-69492.4562311511</v>
+        <v>-69527.19415658679</v>
       </c>
       <c r="I6" t="n">
-        <v>-98257.86100917072</v>
+        <v>-98257.86100917071</v>
       </c>
       <c r="J6" t="n">
         <v>-246435.3208255215</v>
       </c>
       <c r="K6" t="n">
-        <v>-78830.14301553897</v>
+        <v>-78830.14301553895</v>
       </c>
       <c r="L6" t="n">
-        <v>-127124.1130237298</v>
+        <v>-127124.1130237297</v>
       </c>
       <c r="M6" t="n">
-        <v>-163885.1709510507</v>
+        <v>-163885.1709510509</v>
       </c>
       <c r="N6" t="n">
-        <v>-98257.86100917069</v>
+        <v>-98257.86100917071</v>
       </c>
       <c r="O6" t="n">
-        <v>-78830.14301553895</v>
+        <v>-78830.14301553898</v>
       </c>
       <c r="P6" t="n">
-        <v>-78830.14301553895</v>
+        <v>-78830.14301553898</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.39144493658085</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.3055848021875</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>52.64477118236979</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6667845776742</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>11.41080793868758</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.1460960145462</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>211.6739935392765</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.83395077441784</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>83.80296860046215</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>169.4370633542417</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305614</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257889</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021232</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.2177391203972</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807096</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124453992</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037706</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187898</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983789</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845516</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
